--- a/sql/0003_source.xlsx
+++ b/sql/0003_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\Rink\projects\tools\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A77F6B-4497-466E-ADB4-E6797CCA31CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20EEE84-267A-4186-8126-1D66320DDFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35925" yWindow="990" windowWidth="15495" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26730" yWindow="6750" windowWidth="21580" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_datasource" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="877">
   <si>
     <t>学年</t>
     <rPh sb="0" eb="2">
@@ -2782,6 +2782,10 @@
     <rPh sb="0" eb="1">
       <t>ヒ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者識別子</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3075,27 +3079,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3126,32 +3133,35 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>871</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>872</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>872</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>2000</v>
       </c>
@@ -3177,43 +3187,47 @@
         <v>235</v>
       </c>
       <c r="I2" s="4" t="str">
-        <f>N2 &amp; "/" &amp; Q2 &amp; "/" &amp; R2</f>
+        <f>O2 &amp; "/" &amp; R2 &amp; "/" &amp; S2</f>
         <v>1986/01/01</v>
       </c>
       <c r="J2" s="4" t="str">
-        <f>K2 &amp; M2</f>
+        <f>L2 &amp; N2</f>
         <v>13001</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4" t="str">
+        <f>J2&amp;"@class.bunri-s.ed.jp"</f>
+        <v>13001@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L2" s="3">
         <v>13</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>1</v>
       </c>
-      <c r="M2" s="3" t="str">
-        <f>REPT("0", 3-LEN(L2))&amp;L2</f>
+      <c r="N2" s="3" t="str">
+        <f>REPT("0", 3-LEN(M2))&amp;M2</f>
         <v>001</v>
       </c>
-      <c r="N2" s="3">
-        <f t="shared" ref="N2:N8" si="0">2000-14</f>
+      <c r="O2" s="3">
+        <f t="shared" ref="O2:O8" si="0">2000-14</f>
         <v>1986</v>
-      </c>
-      <c r="O2" s="3">
-        <v>1</v>
       </c>
       <c r="P2" s="3">
         <v>1</v>
       </c>
-      <c r="Q2" s="3" t="str">
-        <f>REPT("0", 2-LEN(O2))&amp;O2</f>
-        <v>01</v>
+      <c r="Q2" s="3">
+        <v>1</v>
       </c>
       <c r="R2" s="3" t="str">
         <f>REPT("0", 2-LEN(P2))&amp;P2</f>
         <v>01</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S2" s="3" t="str">
+        <f>REPT("0", 2-LEN(Q2))&amp;Q2</f>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>2000</v>
       </c>
@@ -3239,43 +3253,47 @@
         <v>236</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I49" si="1">N3 &amp; "/" &amp; Q3 &amp; "/" &amp; R3</f>
+        <f t="shared" ref="I3:I49" si="1">O3 &amp; "/" &amp; R3 &amp; "/" &amp; S3</f>
         <v>1986/02/02</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J49" si="2">K3 &amp; M3</f>
+        <f t="shared" ref="J3:J49" si="2">L3 &amp; N3</f>
         <v>13002</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4" t="str">
+        <f t="shared" ref="K3:K49" si="3">J3&amp;"@class.bunri-s.ed.jp"</f>
+        <v>13002@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L3" s="3">
         <v>13</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>2</v>
       </c>
-      <c r="M3" s="3" t="str">
-        <f t="shared" ref="M3:M49" si="3">REPT("0", 3-LEN(L3))&amp;L3</f>
+      <c r="N3" s="3" t="str">
+        <f t="shared" ref="N3:N49" si="4">REPT("0", 3-LEN(M3))&amp;M3</f>
         <v>002</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="O3" s="3">
-        <v>2</v>
-      </c>
       <c r="P3" s="3">
         <v>2</v>
       </c>
-      <c r="Q3" s="3" t="str">
-        <f t="shared" ref="Q3:Q49" si="4">REPT("0", 2-LEN(O3))&amp;O3</f>
-        <v>02</v>
+      <c r="Q3" s="3">
+        <v>2</v>
       </c>
       <c r="R3" s="3" t="str">
         <f t="shared" ref="R3:R49" si="5">REPT("0", 2-LEN(P3))&amp;P3</f>
         <v>02</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S3" s="3" t="str">
+        <f t="shared" ref="S3:S49" si="6">REPT("0", 2-LEN(Q3))&amp;Q3</f>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>2000</v>
       </c>
@@ -3308,36 +3326,40 @@
         <f t="shared" si="2"/>
         <v>13003</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>13003@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L4" s="3">
         <v>13</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>3</v>
       </c>
-      <c r="M4" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N4" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>003</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>4</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>3</v>
-      </c>
-      <c r="Q4" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
       </c>
       <c r="R4" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>04</v>
+      </c>
+      <c r="S4" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>03</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>2000</v>
       </c>
@@ -3370,36 +3392,40 @@
         <f t="shared" si="2"/>
         <v>13004</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>13004@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L5" s="3">
         <v>13</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>4</v>
       </c>
-      <c r="M5" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N5" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>004</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="O5" s="3">
-        <v>5</v>
-      </c>
       <c r="P5" s="3">
         <v>5</v>
       </c>
-      <c r="Q5" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>05</v>
+      <c r="Q5" s="3">
+        <v>5</v>
       </c>
       <c r="R5" s="3" t="str">
         <f t="shared" si="5"/>
         <v>05</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S5" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>2000</v>
       </c>
@@ -3432,36 +3458,40 @@
         <f t="shared" si="2"/>
         <v>13005</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>13005@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L6" s="3">
         <v>13</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>5</v>
       </c>
-      <c r="M6" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N6" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>005</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>7</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>10</v>
-      </c>
-      <c r="Q6" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>07</v>
+      </c>
+      <c r="S6" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>2000</v>
       </c>
@@ -3494,36 +3524,40 @@
         <f t="shared" si="2"/>
         <v>13006</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>13006@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L7" s="3">
         <v>13</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>6</v>
       </c>
-      <c r="M7" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N7" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>006</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>8</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>15</v>
-      </c>
-      <c r="Q7" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
       </c>
       <c r="R7" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>08</v>
+      </c>
+      <c r="S7" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>2000</v>
       </c>
@@ -3556,36 +3590,40 @@
         <f t="shared" si="2"/>
         <v>13007</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>13007@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L8" s="3">
         <v>13</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7</v>
       </c>
-      <c r="M8" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N8" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>007</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20</v>
-      </c>
-      <c r="Q8" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="S8" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>2000</v>
       </c>
@@ -3618,36 +3656,40 @@
         <f t="shared" si="2"/>
         <v>13008</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>13008@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L9" s="3">
         <v>13</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8</v>
       </c>
-      <c r="M9" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N9" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>008</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <f>2000-14</f>
         <v>1986</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>31</v>
-      </c>
-      <c r="Q9" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
       </c>
       <c r="R9" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="S9" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>2000</v>
       </c>
@@ -3680,36 +3722,40 @@
         <f t="shared" si="2"/>
         <v>14009</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>14009@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L10" s="3">
         <v>14</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9</v>
       </c>
-      <c r="M10" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N10" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>009</v>
       </c>
-      <c r="N10" s="3">
-        <f t="shared" ref="N10:N16" si="6">2000-13</f>
+      <c r="O10" s="3">
+        <f t="shared" ref="O10:O16" si="7">2000-13</f>
         <v>1987</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1</v>
       </c>
       <c r="P10" s="3">
         <v>1</v>
       </c>
-      <c r="Q10" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
+      <c r="Q10" s="3">
+        <v>1</v>
       </c>
       <c r="R10" s="3" t="str">
         <f t="shared" si="5"/>
         <v>01</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S10" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>2000</v>
       </c>
@@ -3742,36 +3788,40 @@
         <f t="shared" si="2"/>
         <v>14010</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>14010@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L11" s="3">
         <v>14</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>10</v>
       </c>
-      <c r="M11" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N11" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>010</v>
       </c>
-      <c r="N11" s="3">
-        <f t="shared" si="6"/>
+      <c r="O11" s="3">
+        <f t="shared" si="7"/>
         <v>1987</v>
-      </c>
-      <c r="O11" s="3">
-        <v>2</v>
       </c>
       <c r="P11" s="3">
         <v>2</v>
       </c>
-      <c r="Q11" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
+      <c r="Q11" s="3">
+        <v>2</v>
       </c>
       <c r="R11" s="3" t="str">
         <f t="shared" si="5"/>
         <v>02</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S11" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>2000</v>
       </c>
@@ -3804,36 +3854,40 @@
         <f t="shared" si="2"/>
         <v>14011</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>14011@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L12" s="3">
         <v>14</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11</v>
       </c>
-      <c r="M12" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N12" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>011</v>
       </c>
-      <c r="N12" s="3">
-        <f t="shared" si="6"/>
+      <c r="O12" s="3">
+        <f t="shared" si="7"/>
         <v>1987</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3</v>
-      </c>
-      <c r="Q12" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
       </c>
       <c r="R12" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>04</v>
+      </c>
+      <c r="S12" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>03</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>2000</v>
       </c>
@@ -3866,36 +3920,40 @@
         <f t="shared" si="2"/>
         <v>14012</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>14012@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L13" s="3">
         <v>14</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>12</v>
       </c>
-      <c r="M13" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N13" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>012</v>
       </c>
-      <c r="N13" s="3">
-        <f t="shared" si="6"/>
+      <c r="O13" s="3">
+        <f t="shared" si="7"/>
         <v>1987</v>
-      </c>
-      <c r="O13" s="3">
-        <v>5</v>
       </c>
       <c r="P13" s="3">
         <v>5</v>
       </c>
-      <c r="Q13" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>05</v>
+      <c r="Q13" s="3">
+        <v>5</v>
       </c>
       <c r="R13" s="3" t="str">
         <f t="shared" si="5"/>
         <v>05</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S13" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>2000</v>
       </c>
@@ -3928,36 +3986,40 @@
         <f t="shared" si="2"/>
         <v>14013</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>14013@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L14" s="3">
         <v>14</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13</v>
       </c>
-      <c r="M14" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N14" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>013</v>
       </c>
-      <c r="N14" s="3">
-        <f t="shared" si="6"/>
+      <c r="O14" s="3">
+        <f t="shared" si="7"/>
         <v>1987</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10</v>
-      </c>
-      <c r="Q14" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
       </c>
       <c r="R14" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>07</v>
+      </c>
+      <c r="S14" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>2000</v>
       </c>
@@ -3990,36 +4052,40 @@
         <f t="shared" si="2"/>
         <v>14014</v>
       </c>
-      <c r="K15" s="3">
-        <v>14</v>
+      <c r="K15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>14014@class.bunri-s.ed.jp</v>
       </c>
       <c r="L15" s="3">
         <v>14</v>
       </c>
-      <c r="M15" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="M15" s="3">
+        <v>14</v>
+      </c>
+      <c r="N15" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>014</v>
       </c>
-      <c r="N15" s="3">
-        <f t="shared" si="6"/>
+      <c r="O15" s="3">
+        <f t="shared" si="7"/>
         <v>1987</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>15</v>
-      </c>
-      <c r="Q15" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
       </c>
       <c r="R15" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>08</v>
+      </c>
+      <c r="S15" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>2000</v>
       </c>
@@ -4052,36 +4118,40 @@
         <f t="shared" si="2"/>
         <v>14015</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>14015@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L16" s="3">
         <v>14</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>15</v>
       </c>
-      <c r="M16" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N16" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>015</v>
       </c>
-      <c r="N16" s="3">
-        <f t="shared" si="6"/>
+      <c r="O16" s="3">
+        <f t="shared" si="7"/>
         <v>1987</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>11</v>
       </c>
-      <c r="P16" s="3">
+      <c r="Q16" s="3">
         <v>20</v>
-      </c>
-      <c r="Q16" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
       </c>
       <c r="R16" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="S16" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>2000</v>
       </c>
@@ -4114,36 +4184,40 @@
         <f t="shared" si="2"/>
         <v>14016</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>14016@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L17" s="3">
         <v>14</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16</v>
       </c>
-      <c r="M17" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N17" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>016</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <f>2000-13</f>
         <v>1987</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>31</v>
-      </c>
-      <c r="Q17" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
       </c>
       <c r="R17" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="S17" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>2000</v>
       </c>
@@ -4176,36 +4250,40 @@
         <f t="shared" si="2"/>
         <v>15017</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>15017@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L18" s="3">
         <v>15</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17</v>
       </c>
-      <c r="M18" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N18" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>017</v>
       </c>
-      <c r="N18" s="3">
-        <f t="shared" ref="N18:N24" si="7">2000-12</f>
+      <c r="O18" s="3">
+        <f t="shared" ref="O18:O24" si="8">2000-12</f>
         <v>1988</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1</v>
       </c>
       <c r="P18" s="3">
         <v>1</v>
       </c>
-      <c r="Q18" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
+      <c r="Q18" s="3">
+        <v>1</v>
       </c>
       <c r="R18" s="3" t="str">
         <f t="shared" si="5"/>
         <v>01</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S18" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>2000</v>
       </c>
@@ -4238,36 +4316,40 @@
         <f t="shared" si="2"/>
         <v>15018</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>15018@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L19" s="3">
         <v>15</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <v>18</v>
       </c>
-      <c r="M19" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N19" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>018</v>
       </c>
-      <c r="N19" s="3">
-        <f t="shared" si="7"/>
+      <c r="O19" s="3">
+        <f t="shared" si="8"/>
         <v>1988</v>
-      </c>
-      <c r="O19" s="3">
-        <v>2</v>
       </c>
       <c r="P19" s="3">
         <v>2</v>
       </c>
-      <c r="Q19" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
+      <c r="Q19" s="3">
+        <v>2</v>
       </c>
       <c r="R19" s="3" t="str">
         <f t="shared" si="5"/>
         <v>02</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S19" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>2000</v>
       </c>
@@ -4300,36 +4382,40 @@
         <f t="shared" si="2"/>
         <v>15019</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>15019@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L20" s="3">
         <v>15</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19</v>
       </c>
-      <c r="M20" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N20" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>019</v>
       </c>
-      <c r="N20" s="3">
-        <f t="shared" si="7"/>
+      <c r="O20" s="3">
+        <f t="shared" si="8"/>
         <v>1988</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
       </c>
       <c r="R20" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>04</v>
+      </c>
+      <c r="S20" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>03</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>2000</v>
       </c>
@@ -4362,36 +4448,40 @@
         <f t="shared" si="2"/>
         <v>15020</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>15020@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L21" s="3">
         <v>15</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20</v>
       </c>
-      <c r="M21" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N21" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>020</v>
       </c>
-      <c r="N21" s="3">
-        <f t="shared" si="7"/>
+      <c r="O21" s="3">
+        <f t="shared" si="8"/>
         <v>1988</v>
-      </c>
-      <c r="O21" s="3">
-        <v>5</v>
       </c>
       <c r="P21" s="3">
         <v>5</v>
       </c>
-      <c r="Q21" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>05</v>
+      <c r="Q21" s="3">
+        <v>5</v>
       </c>
       <c r="R21" s="3" t="str">
         <f t="shared" si="5"/>
         <v>05</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S21" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>2000</v>
       </c>
@@ -4424,36 +4514,40 @@
         <f t="shared" si="2"/>
         <v>15021</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>15021@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L22" s="3">
         <v>15</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21</v>
       </c>
-      <c r="M22" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N22" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>021</v>
       </c>
-      <c r="N22" s="3">
-        <f t="shared" si="7"/>
+      <c r="O22" s="3">
+        <f t="shared" si="8"/>
         <v>1988</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10</v>
-      </c>
-      <c r="Q22" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
       </c>
       <c r="R22" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>07</v>
+      </c>
+      <c r="S22" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>2000</v>
       </c>
@@ -4486,36 +4580,40 @@
         <f t="shared" si="2"/>
         <v>15022</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>15022@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L23" s="3">
         <v>15</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22</v>
       </c>
-      <c r="M23" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N23" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>022</v>
       </c>
-      <c r="N23" s="3">
-        <f t="shared" si="7"/>
+      <c r="O23" s="3">
+        <f t="shared" si="8"/>
         <v>1988</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15</v>
-      </c>
-      <c r="Q23" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
       </c>
       <c r="R23" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>08</v>
+      </c>
+      <c r="S23" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>2000</v>
       </c>
@@ -4548,36 +4646,40 @@
         <f t="shared" si="2"/>
         <v>15023</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>15023@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L24" s="3">
         <v>15</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23</v>
       </c>
-      <c r="M24" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N24" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>023</v>
       </c>
-      <c r="N24" s="3">
-        <f t="shared" si="7"/>
+      <c r="O24" s="3">
+        <f t="shared" si="8"/>
         <v>1988</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20</v>
-      </c>
-      <c r="Q24" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
       </c>
       <c r="R24" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="S24" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>2000</v>
       </c>
@@ -4610,36 +4712,40 @@
         <f t="shared" si="2"/>
         <v>15024</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>15024@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L25" s="3">
         <v>15</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <v>24</v>
       </c>
-      <c r="M25" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N25" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>024</v>
       </c>
-      <c r="N25" s="3">
+      <c r="O25" s="3">
         <f>2000-12</f>
         <v>1988</v>
       </c>
-      <c r="O25" s="3">
+      <c r="P25" s="3">
         <v>12</v>
       </c>
-      <c r="P25" s="3">
+      <c r="Q25" s="3">
         <v>31</v>
-      </c>
-      <c r="Q25" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
       </c>
       <c r="R25" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="S25" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>2000</v>
       </c>
@@ -4672,36 +4778,40 @@
         <f t="shared" si="2"/>
         <v>10025</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>10025@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L26" s="3">
         <v>10</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25</v>
       </c>
-      <c r="M26" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N26" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>025</v>
       </c>
-      <c r="N26" s="3">
-        <f t="shared" ref="N26:N32" si="8">2000-17</f>
+      <c r="O26" s="3">
+        <f t="shared" ref="O26:O32" si="9">2000-17</f>
         <v>1983</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1</v>
       </c>
       <c r="P26" s="3">
         <v>1</v>
       </c>
-      <c r="Q26" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
+      <c r="Q26" s="3">
+        <v>1</v>
       </c>
       <c r="R26" s="3" t="str">
         <f t="shared" si="5"/>
         <v>01</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S26" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>2000</v>
       </c>
@@ -4734,36 +4844,40 @@
         <f t="shared" si="2"/>
         <v>10026</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>10026@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L27" s="3">
         <v>10</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26</v>
       </c>
-      <c r="M27" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N27" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>026</v>
       </c>
-      <c r="N27" s="3">
-        <f t="shared" si="8"/>
+      <c r="O27" s="3">
+        <f t="shared" si="9"/>
         <v>1983</v>
-      </c>
-      <c r="O27" s="3">
-        <v>2</v>
       </c>
       <c r="P27" s="3">
         <v>2</v>
       </c>
-      <c r="Q27" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
+      <c r="Q27" s="3">
+        <v>2</v>
       </c>
       <c r="R27" s="3" t="str">
         <f t="shared" si="5"/>
         <v>02</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S27" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>2000</v>
       </c>
@@ -4796,36 +4910,40 @@
         <f t="shared" si="2"/>
         <v>10027</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>10027@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L28" s="3">
         <v>10</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="3">
         <v>27</v>
       </c>
-      <c r="M28" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N28" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>027</v>
       </c>
-      <c r="N28" s="3">
-        <f t="shared" si="8"/>
+      <c r="O28" s="3">
+        <f t="shared" si="9"/>
         <v>1983</v>
       </c>
-      <c r="O28" s="3">
+      <c r="P28" s="3">
         <v>4</v>
       </c>
-      <c r="P28" s="3">
+      <c r="Q28" s="3">
         <v>3</v>
-      </c>
-      <c r="Q28" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
       </c>
       <c r="R28" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>04</v>
+      </c>
+      <c r="S28" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>03</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>2000</v>
       </c>
@@ -4858,36 +4976,40 @@
         <f t="shared" si="2"/>
         <v>10028</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>10028@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L29" s="3">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>28</v>
       </c>
-      <c r="M29" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N29" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>028</v>
       </c>
-      <c r="N29" s="3">
-        <f t="shared" si="8"/>
+      <c r="O29" s="3">
+        <f t="shared" si="9"/>
         <v>1983</v>
-      </c>
-      <c r="O29" s="3">
-        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>5</v>
       </c>
-      <c r="Q29" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>05</v>
+      <c r="Q29" s="3">
+        <v>5</v>
       </c>
       <c r="R29" s="3" t="str">
         <f t="shared" si="5"/>
         <v>05</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S29" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>2000</v>
       </c>
@@ -4920,36 +5042,40 @@
         <f t="shared" si="2"/>
         <v>10029</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>10029@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L30" s="3">
         <v>10</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <v>29</v>
       </c>
-      <c r="M30" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N30" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>029</v>
       </c>
-      <c r="N30" s="3">
-        <f t="shared" si="8"/>
+      <c r="O30" s="3">
+        <f t="shared" si="9"/>
         <v>1983</v>
       </c>
-      <c r="O30" s="3">
+      <c r="P30" s="3">
         <v>7</v>
       </c>
-      <c r="P30" s="3">
+      <c r="Q30" s="3">
         <v>10</v>
-      </c>
-      <c r="Q30" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
       </c>
       <c r="R30" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>07</v>
+      </c>
+      <c r="S30" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>2000</v>
       </c>
@@ -4982,36 +5108,40 @@
         <f t="shared" si="2"/>
         <v>10030</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>10030@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L31" s="3">
         <v>10</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <v>30</v>
       </c>
-      <c r="M31" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N31" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>030</v>
       </c>
-      <c r="N31" s="3">
-        <f t="shared" si="8"/>
+      <c r="O31" s="3">
+        <f t="shared" si="9"/>
         <v>1983</v>
       </c>
-      <c r="O31" s="3">
+      <c r="P31" s="3">
         <v>8</v>
       </c>
-      <c r="P31" s="3">
+      <c r="Q31" s="3">
         <v>15</v>
-      </c>
-      <c r="Q31" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
       </c>
       <c r="R31" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>08</v>
+      </c>
+      <c r="S31" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>2000</v>
       </c>
@@ -5044,36 +5174,40 @@
         <f t="shared" si="2"/>
         <v>10031</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>10031@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L32" s="3">
         <v>10</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>31</v>
       </c>
-      <c r="M32" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N32" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>031</v>
       </c>
-      <c r="N32" s="3">
-        <f t="shared" si="8"/>
+      <c r="O32" s="3">
+        <f t="shared" si="9"/>
         <v>1983</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20</v>
-      </c>
-      <c r="Q32" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
       </c>
       <c r="R32" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="S32" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>2000</v>
       </c>
@@ -5106,36 +5240,40 @@
         <f t="shared" si="2"/>
         <v>11032</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>11032@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L33" s="3">
         <v>11</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32</v>
       </c>
-      <c r="M33" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N33" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>032</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <f>2000-17</f>
         <v>1983</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>31</v>
-      </c>
-      <c r="Q33" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
       </c>
       <c r="R33" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="S33" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>2000</v>
       </c>
@@ -5168,36 +5306,40 @@
         <f t="shared" si="2"/>
         <v>11033</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>11033@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L34" s="3">
         <v>11</v>
       </c>
-      <c r="L34" s="3">
+      <c r="M34" s="3">
         <v>33</v>
       </c>
-      <c r="M34" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N34" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>033</v>
       </c>
-      <c r="N34" s="3">
-        <f t="shared" ref="N34:N40" si="9">2000-16</f>
+      <c r="O34" s="3">
+        <f t="shared" ref="O34:O40" si="10">2000-16</f>
         <v>1984</v>
-      </c>
-      <c r="O34" s="3">
-        <v>1</v>
       </c>
       <c r="P34" s="3">
         <v>1</v>
       </c>
-      <c r="Q34" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
+      <c r="Q34" s="3">
+        <v>1</v>
       </c>
       <c r="R34" s="3" t="str">
         <f t="shared" si="5"/>
         <v>01</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S34" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>2000</v>
       </c>
@@ -5230,36 +5372,40 @@
         <f t="shared" si="2"/>
         <v>11034</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>11034@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L35" s="3">
         <v>11</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>34</v>
       </c>
-      <c r="M35" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N35" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>034</v>
       </c>
-      <c r="N35" s="3">
-        <f t="shared" si="9"/>
+      <c r="O35" s="3">
+        <f t="shared" si="10"/>
         <v>1984</v>
-      </c>
-      <c r="O35" s="3">
-        <v>2</v>
       </c>
       <c r="P35" s="3">
         <v>2</v>
       </c>
-      <c r="Q35" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
+      <c r="Q35" s="3">
+        <v>2</v>
       </c>
       <c r="R35" s="3" t="str">
         <f t="shared" si="5"/>
         <v>02</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S35" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>2000</v>
       </c>
@@ -5292,36 +5438,40 @@
         <f t="shared" si="2"/>
         <v>11035</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>11035@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L36" s="3">
         <v>11</v>
       </c>
-      <c r="L36" s="3">
+      <c r="M36" s="3">
         <v>35</v>
       </c>
-      <c r="M36" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N36" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>035</v>
       </c>
-      <c r="N36" s="3">
-        <f t="shared" si="9"/>
+      <c r="O36" s="3">
+        <f t="shared" si="10"/>
         <v>1984</v>
       </c>
-      <c r="O36" s="3">
+      <c r="P36" s="3">
         <v>4</v>
       </c>
-      <c r="P36" s="3">
+      <c r="Q36" s="3">
         <v>3</v>
-      </c>
-      <c r="Q36" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
       </c>
       <c r="R36" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>04</v>
+      </c>
+      <c r="S36" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>03</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>2000</v>
       </c>
@@ -5354,36 +5504,40 @@
         <f t="shared" si="2"/>
         <v>11036</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>11036@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L37" s="3">
         <v>11</v>
       </c>
-      <c r="L37" s="3">
+      <c r="M37" s="3">
         <v>36</v>
       </c>
-      <c r="M37" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N37" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>036</v>
       </c>
-      <c r="N37" s="3">
-        <f t="shared" si="9"/>
+      <c r="O37" s="3">
+        <f t="shared" si="10"/>
         <v>1984</v>
-      </c>
-      <c r="O37" s="3">
-        <v>5</v>
       </c>
       <c r="P37" s="3">
         <v>5</v>
       </c>
-      <c r="Q37" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>05</v>
+      <c r="Q37" s="3">
+        <v>5</v>
       </c>
       <c r="R37" s="3" t="str">
         <f t="shared" si="5"/>
         <v>05</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S37" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>2000</v>
       </c>
@@ -5416,36 +5570,40 @@
         <f t="shared" si="2"/>
         <v>11037</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>11037@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L38" s="3">
         <v>11</v>
       </c>
-      <c r="L38" s="3">
+      <c r="M38" s="3">
         <v>37</v>
       </c>
-      <c r="M38" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N38" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>037</v>
       </c>
-      <c r="N38" s="3">
-        <f t="shared" si="9"/>
+      <c r="O38" s="3">
+        <f t="shared" si="10"/>
         <v>1984</v>
       </c>
-      <c r="O38" s="3">
+      <c r="P38" s="3">
         <v>7</v>
       </c>
-      <c r="P38" s="3">
+      <c r="Q38" s="3">
         <v>10</v>
-      </c>
-      <c r="Q38" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
       </c>
       <c r="R38" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>07</v>
+      </c>
+      <c r="S38" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>2000</v>
       </c>
@@ -5478,36 +5636,40 @@
         <f t="shared" si="2"/>
         <v>11038</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>11038@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L39" s="3">
         <v>11</v>
       </c>
-      <c r="L39" s="3">
+      <c r="M39" s="3">
         <v>38</v>
       </c>
-      <c r="M39" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N39" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>038</v>
       </c>
-      <c r="N39" s="3">
-        <f t="shared" si="9"/>
+      <c r="O39" s="3">
+        <f t="shared" si="10"/>
         <v>1984</v>
       </c>
-      <c r="O39" s="3">
+      <c r="P39" s="3">
         <v>8</v>
       </c>
-      <c r="P39" s="3">
+      <c r="Q39" s="3">
         <v>15</v>
-      </c>
-      <c r="Q39" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
       </c>
       <c r="R39" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>08</v>
+      </c>
+      <c r="S39" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>2000</v>
       </c>
@@ -5540,36 +5702,40 @@
         <f t="shared" si="2"/>
         <v>11039</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>11039@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L40" s="3">
         <v>11</v>
       </c>
-      <c r="L40" s="3">
+      <c r="M40" s="3">
         <v>39</v>
       </c>
-      <c r="M40" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N40" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>039</v>
       </c>
-      <c r="N40" s="3">
-        <f t="shared" si="9"/>
+      <c r="O40" s="3">
+        <f t="shared" si="10"/>
         <v>1984</v>
       </c>
-      <c r="O40" s="3">
+      <c r="P40" s="3">
         <v>11</v>
       </c>
-      <c r="P40" s="3">
+      <c r="Q40" s="3">
         <v>20</v>
-      </c>
-      <c r="Q40" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
       </c>
       <c r="R40" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="S40" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>2000</v>
       </c>
@@ -5602,36 +5768,40 @@
         <f t="shared" si="2"/>
         <v>11040</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>11040@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L41" s="3">
         <v>11</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40</v>
       </c>
-      <c r="M41" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N41" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>040</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <f>2000-16</f>
         <v>1984</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31</v>
-      </c>
-      <c r="Q41" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
       </c>
       <c r="R41" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="S41" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>2000</v>
       </c>
@@ -5664,36 +5834,40 @@
         <f t="shared" si="2"/>
         <v>12041</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>12041@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L42" s="3">
         <v>12</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>41</v>
       </c>
-      <c r="M42" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N42" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>041</v>
       </c>
-      <c r="N42" s="3">
-        <f t="shared" ref="N42:N48" si="10">2000-15</f>
+      <c r="O42" s="3">
+        <f t="shared" ref="O42:O48" si="11">2000-15</f>
         <v>1985</v>
-      </c>
-      <c r="O42" s="3">
-        <v>1</v>
       </c>
       <c r="P42" s="3">
         <v>1</v>
       </c>
-      <c r="Q42" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
+      <c r="Q42" s="3">
+        <v>1</v>
       </c>
       <c r="R42" s="3" t="str">
         <f t="shared" si="5"/>
         <v>01</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S42" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>2000</v>
       </c>
@@ -5726,36 +5900,40 @@
         <f t="shared" si="2"/>
         <v>12042</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>12042@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L43" s="3">
         <v>12</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>42</v>
       </c>
-      <c r="M43" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N43" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>042</v>
       </c>
-      <c r="N43" s="3">
-        <f t="shared" si="10"/>
+      <c r="O43" s="3">
+        <f t="shared" si="11"/>
         <v>1985</v>
-      </c>
-      <c r="O43" s="3">
-        <v>2</v>
       </c>
       <c r="P43" s="3">
         <v>2</v>
       </c>
-      <c r="Q43" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
+      <c r="Q43" s="3">
+        <v>2</v>
       </c>
       <c r="R43" s="3" t="str">
         <f t="shared" si="5"/>
         <v>02</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S43" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>2000</v>
       </c>
@@ -5788,36 +5966,40 @@
         <f t="shared" si="2"/>
         <v>12043</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>12043@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L44" s="3">
         <v>12</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43</v>
       </c>
-      <c r="M44" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N44" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>043</v>
       </c>
-      <c r="N44" s="3">
-        <f t="shared" si="10"/>
+      <c r="O44" s="3">
+        <f t="shared" si="11"/>
         <v>1985</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3</v>
-      </c>
-      <c r="Q44" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
       </c>
       <c r="R44" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>04</v>
+      </c>
+      <c r="S44" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>03</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>2000</v>
       </c>
@@ -5850,36 +6032,40 @@
         <f t="shared" si="2"/>
         <v>12044</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>12044@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L45" s="3">
         <v>12</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44</v>
       </c>
-      <c r="M45" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N45" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>044</v>
       </c>
-      <c r="N45" s="3">
-        <f t="shared" si="10"/>
+      <c r="O45" s="3">
+        <f t="shared" si="11"/>
         <v>1985</v>
-      </c>
-      <c r="O45" s="3">
-        <v>5</v>
       </c>
       <c r="P45" s="3">
         <v>5</v>
       </c>
-      <c r="Q45" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>05</v>
+      <c r="Q45" s="3">
+        <v>5</v>
       </c>
       <c r="R45" s="3" t="str">
         <f t="shared" si="5"/>
         <v>05</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="S45" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>2000</v>
       </c>
@@ -5912,36 +6098,40 @@
         <f t="shared" si="2"/>
         <v>12045</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>12045@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L46" s="3">
         <v>12</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>45</v>
       </c>
-      <c r="M46" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N46" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>045</v>
       </c>
-      <c r="N46" s="3">
-        <f t="shared" si="10"/>
+      <c r="O46" s="3">
+        <f t="shared" si="11"/>
         <v>1985</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10</v>
-      </c>
-      <c r="Q46" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
       </c>
       <c r="R46" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>07</v>
+      </c>
+      <c r="S46" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>2000</v>
       </c>
@@ -5974,36 +6164,40 @@
         <f t="shared" si="2"/>
         <v>12046</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>12046@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L47" s="3">
         <v>12</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>46</v>
       </c>
-      <c r="M47" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N47" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>046</v>
       </c>
-      <c r="N47" s="3">
-        <f t="shared" si="10"/>
+      <c r="O47" s="3">
+        <f t="shared" si="11"/>
         <v>1985</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>15</v>
-      </c>
-      <c r="Q47" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
       </c>
       <c r="R47" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>08</v>
+      </c>
+      <c r="S47" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>2000</v>
       </c>
@@ -6036,36 +6230,40 @@
         <f t="shared" si="2"/>
         <v>12047</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>12047@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L48" s="3">
         <v>12</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>47</v>
       </c>
-      <c r="M48" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N48" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>047</v>
       </c>
-      <c r="N48" s="3">
-        <f t="shared" si="10"/>
+      <c r="O48" s="3">
+        <f t="shared" si="11"/>
         <v>1985</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20</v>
-      </c>
-      <c r="Q48" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
       </c>
       <c r="R48" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="S48" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>2000</v>
       </c>
@@ -6098,32 +6296,36 @@
         <f t="shared" si="2"/>
         <v>12048</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>12048@class.bunri-s.ed.jp</v>
+      </c>
+      <c r="L49" s="3">
         <v>12</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>48</v>
       </c>
-      <c r="M49" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="N49" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>048</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <f>2000-15</f>
         <v>1985</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31</v>
-      </c>
-      <c r="Q49" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
       </c>
       <c r="R49" s="3" t="str">
         <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="S49" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
     </row>
@@ -6142,13 +6344,13 @@
       <selection activeCell="A43" sqref="A43:B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>668</v>
       </c>
@@ -6156,7 +6358,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>670</v>
       </c>
@@ -6164,7 +6366,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>672</v>
       </c>
@@ -6172,7 +6374,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>674</v>
       </c>
@@ -6180,7 +6382,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>676</v>
       </c>
@@ -6188,7 +6390,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>678</v>
       </c>
@@ -6196,7 +6398,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>680</v>
       </c>
@@ -6204,7 +6406,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>682</v>
       </c>
@@ -6212,7 +6414,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>684</v>
       </c>
@@ -6220,7 +6422,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>686</v>
       </c>
@@ -6228,7 +6430,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>688</v>
       </c>
@@ -6236,7 +6438,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>690</v>
       </c>
@@ -6244,7 +6446,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>692</v>
       </c>
@@ -6252,7 +6454,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>694</v>
       </c>
@@ -6260,7 +6462,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>696</v>
       </c>
@@ -6268,7 +6470,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>698</v>
       </c>
@@ -6276,7 +6478,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>700</v>
       </c>
@@ -6284,7 +6486,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>702</v>
       </c>
@@ -6292,7 +6494,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>704</v>
       </c>
@@ -6300,7 +6502,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>706</v>
       </c>
@@ -6308,7 +6510,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>708</v>
       </c>
@@ -6316,7 +6518,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>710</v>
       </c>
@@ -6324,7 +6526,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>712</v>
       </c>
@@ -6332,7 +6534,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>714</v>
       </c>
@@ -6340,7 +6542,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>716</v>
       </c>
@@ -6348,7 +6550,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>718</v>
       </c>
@@ -6356,7 +6558,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>720</v>
       </c>
@@ -6364,7 +6566,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>722</v>
       </c>
@@ -6372,7 +6574,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>724</v>
       </c>
@@ -6380,7 +6582,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>726</v>
       </c>
@@ -6388,7 +6590,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>728</v>
       </c>
@@ -6396,7 +6598,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>730</v>
       </c>
@@ -6404,7 +6606,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>732</v>
       </c>
@@ -6412,7 +6614,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>734</v>
       </c>
@@ -6420,7 +6622,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>736</v>
       </c>
@@ -6428,7 +6630,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>738</v>
       </c>
@@ -6436,7 +6638,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>740</v>
       </c>
@@ -6444,7 +6646,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>742</v>
       </c>
@@ -6452,7 +6654,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>744</v>
       </c>
@@ -6460,7 +6662,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>746</v>
       </c>
@@ -6468,7 +6670,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>748</v>
       </c>
@@ -6476,7 +6678,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>750</v>
       </c>
@@ -6484,7 +6686,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>752</v>
       </c>
@@ -6492,7 +6694,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>754</v>
       </c>
@@ -6500,7 +6702,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>756</v>
       </c>
@@ -6508,7 +6710,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>758</v>
       </c>
@@ -6516,7 +6718,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>760</v>
       </c>
@@ -6524,7 +6726,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>762</v>
       </c>
@@ -6532,7 +6734,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>764</v>
       </c>
@@ -6540,7 +6742,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>766</v>
       </c>
@@ -6548,7 +6750,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>768</v>
       </c>
@@ -6556,7 +6758,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>770</v>
       </c>
@@ -6564,7 +6766,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>772</v>
       </c>
@@ -6572,7 +6774,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>774</v>
       </c>
@@ -6580,7 +6782,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>776</v>
       </c>
@@ -6588,7 +6790,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>778</v>
       </c>
@@ -6596,7 +6798,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>780</v>
       </c>
@@ -6604,7 +6806,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -6612,7 +6814,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>783</v>
       </c>
@@ -6620,7 +6822,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>785</v>
       </c>
@@ -6628,7 +6830,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>787</v>
       </c>
@@ -6636,7 +6838,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>789</v>
       </c>
@@ -6644,7 +6846,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>791</v>
       </c>
@@ -6652,7 +6854,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>793</v>
       </c>
@@ -6660,7 +6862,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>795</v>
       </c>
@@ -6668,7 +6870,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>797</v>
       </c>
@@ -6676,7 +6878,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>799</v>
       </c>
@@ -6684,7 +6886,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>801</v>
       </c>
@@ -6692,7 +6894,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>803</v>
       </c>
@@ -6700,7 +6902,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>805</v>
       </c>
@@ -6708,7 +6910,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>807</v>
       </c>
@@ -6716,7 +6918,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>809</v>
       </c>
@@ -6724,7 +6926,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>811</v>
       </c>
@@ -6732,7 +6934,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>813</v>
       </c>
@@ -6740,7 +6942,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>815</v>
       </c>
@@ -6748,7 +6950,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>817</v>
       </c>
@@ -6756,7 +6958,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>819</v>
       </c>
@@ -6764,7 +6966,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>821</v>
       </c>
@@ -6772,7 +6974,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>823</v>
       </c>
@@ -6780,7 +6982,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>825</v>
       </c>
@@ -6788,7 +6990,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>827</v>
       </c>
@@ -6796,7 +6998,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>829</v>
       </c>
@@ -6804,7 +7006,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>831</v>
       </c>
@@ -6812,7 +7014,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>833</v>
       </c>
@@ -6820,7 +7022,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>835</v>
       </c>
@@ -6828,7 +7030,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>837</v>
       </c>
@@ -6836,7 +7038,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>839</v>
       </c>
@@ -6844,7 +7046,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>841</v>
       </c>
@@ -6852,7 +7054,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>843</v>
       </c>
@@ -6860,7 +7062,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>845</v>
       </c>
@@ -6868,7 +7070,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>847</v>
       </c>
@@ -6876,7 +7078,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>849</v>
       </c>
@@ -6884,7 +7086,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>851</v>
       </c>
@@ -6892,7 +7094,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>853</v>
       </c>
@@ -6900,7 +7102,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>855</v>
       </c>
@@ -6908,7 +7110,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>857</v>
       </c>
@@ -6916,7 +7118,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>859</v>
       </c>
@@ -6924,7 +7126,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>861</v>
       </c>
@@ -6932,7 +7134,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>863</v>
       </c>
@@ -6940,7 +7142,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>865</v>
       </c>
@@ -6960,9 +7162,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>234</v>
       </c>
@@ -6973,7 +7175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -6984,7 +7186,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6995,7 +7197,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -7006,7 +7208,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -7017,7 +7219,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -7028,7 +7230,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -7039,7 +7241,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -7050,7 +7252,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -7061,7 +7263,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -7072,7 +7274,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -7083,7 +7285,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -7094,7 +7296,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -7105,7 +7307,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -7116,7 +7318,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -7127,7 +7329,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -7138,7 +7340,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -7149,7 +7351,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -7160,7 +7362,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -7171,7 +7373,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -7182,7 +7384,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -7193,7 +7395,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -7204,7 +7406,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -7215,7 +7417,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -7226,7 +7428,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -7234,7 +7436,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -7242,7 +7444,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -7250,7 +7452,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -7258,7 +7460,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -7266,7 +7468,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -7274,7 +7476,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -7282,7 +7484,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -7290,7 +7492,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -7298,7 +7500,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -7306,7 +7508,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -7314,7 +7516,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -7322,7 +7524,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -7330,7 +7532,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -7338,7 +7540,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -7346,7 +7548,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -7354,7 +7556,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -7362,7 +7564,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -7370,7 +7572,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -7378,7 +7580,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -7386,7 +7588,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -7394,7 +7596,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -7402,7 +7604,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -7410,7 +7612,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -7418,7 +7620,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -7426,7 +7628,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -7434,7 +7636,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -7442,7 +7644,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -7450,7 +7652,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -7458,7 +7660,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -7466,7 +7668,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -7474,7 +7676,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -7482,7 +7684,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -7490,7 +7692,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -7498,7 +7700,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -7506,7 +7708,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -7514,7 +7716,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -7522,7 +7724,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -7530,7 +7732,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -7538,7 +7740,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -7546,7 +7748,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -7554,7 +7756,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -7562,7 +7764,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -7570,7 +7772,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -7578,7 +7780,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -7586,7 +7788,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -7594,7 +7796,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -7602,7 +7804,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -7610,7 +7812,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -7618,7 +7820,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -7626,7 +7828,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -7634,7 +7836,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -7642,7 +7844,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -7650,7 +7852,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -7658,7 +7860,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -7666,7 +7868,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -7674,7 +7876,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -7682,7 +7884,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -7690,7 +7892,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -7698,7 +7900,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -7706,7 +7908,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -7714,7 +7916,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -7722,7 +7924,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -7730,7 +7932,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -7738,7 +7940,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -7746,7 +7948,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -7754,7 +7956,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -7762,7 +7964,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -7770,7 +7972,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -7778,7 +7980,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -7786,7 +7988,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -7794,7 +7996,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -7802,7 +8004,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -7810,7 +8012,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -7818,7 +8020,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -7826,7 +8028,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -7834,7 +8036,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -7842,7 +8044,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -7850,7 +8052,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -7858,7 +8060,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -7866,7 +8068,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -7874,7 +8076,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -7882,7 +8084,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>118</v>
       </c>
@@ -7890,7 +8092,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>119</v>
       </c>
@@ -7898,7 +8100,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>120</v>
       </c>
@@ -7906,7 +8108,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>121</v>
       </c>
@@ -7914,7 +8116,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -7922,7 +8124,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -7930,7 +8132,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>124</v>
       </c>
@@ -7938,7 +8140,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -7946,7 +8148,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -7954,7 +8156,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -7962,7 +8164,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -7970,7 +8172,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -7978,7 +8180,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -7986,7 +8188,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -7994,7 +8196,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -8002,7 +8204,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>132</v>
       </c>
@@ -8010,7 +8212,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>133</v>
       </c>
@@ -8018,7 +8220,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -8026,7 +8228,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>135</v>
       </c>
@@ -8034,7 +8236,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -8042,7 +8244,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>137</v>
       </c>
@@ -8050,7 +8252,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -8058,7 +8260,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -8066,7 +8268,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -8074,7 +8276,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>141</v>
       </c>
@@ -8082,7 +8284,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -8090,7 +8292,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>143</v>
       </c>
@@ -8098,7 +8300,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>98</v>
       </c>
@@ -8106,7 +8308,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -8114,7 +8316,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>145</v>
       </c>
@@ -8122,7 +8324,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>146</v>
       </c>
@@ -8130,7 +8332,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>147</v>
       </c>
@@ -8138,7 +8340,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>148</v>
       </c>
@@ -8146,7 +8348,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>149</v>
       </c>
@@ -8154,7 +8356,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>150</v>
       </c>
@@ -8162,7 +8364,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>151</v>
       </c>
@@ -8170,7 +8372,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -8178,7 +8380,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -8186,7 +8388,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>154</v>
       </c>
@@ -8194,7 +8396,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -8202,7 +8404,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>156</v>
       </c>
@@ -8210,7 +8412,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>157</v>
       </c>
@@ -8218,7 +8420,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -8226,7 +8428,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>159</v>
       </c>
@@ -8234,7 +8436,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>27</v>
       </c>
@@ -8242,7 +8444,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -8250,7 +8452,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -8258,7 +8460,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -8266,7 +8468,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -8274,7 +8476,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -8282,7 +8484,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -8290,7 +8492,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -8298,7 +8500,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>39</v>
       </c>
@@ -8306,7 +8508,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -8314,7 +8516,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -8322,7 +8524,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -8330,7 +8532,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>170</v>
       </c>
@@ -8338,7 +8540,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -8346,7 +8548,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>172</v>
       </c>
@@ -8354,7 +8556,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>173</v>
       </c>
@@ -8362,7 +8564,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>174</v>
       </c>
@@ -8370,7 +8572,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>175</v>
       </c>
@@ -8378,7 +8580,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>176</v>
       </c>
@@ -8386,7 +8588,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>177</v>
       </c>
@@ -8394,7 +8596,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>178</v>
       </c>
@@ -8402,7 +8604,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>179</v>
       </c>
@@ -8410,7 +8612,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>180</v>
       </c>
@@ -8418,7 +8620,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>107</v>
       </c>
@@ -8426,7 +8628,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -8434,7 +8636,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -8442,7 +8644,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>31</v>
       </c>
@@ -8450,7 +8652,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -8458,7 +8660,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -8466,7 +8668,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -8474,7 +8676,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -8482,7 +8684,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -8490,7 +8692,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -8498,7 +8700,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -8506,7 +8708,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>190</v>
       </c>
@@ -8514,7 +8716,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>191</v>
       </c>
@@ -8522,7 +8724,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>192</v>
       </c>
@@ -8530,7 +8732,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>193</v>
       </c>
@@ -8538,7 +8740,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>194</v>
       </c>
@@ -8546,7 +8748,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -8554,7 +8756,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>74</v>
       </c>
@@ -8562,7 +8764,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>196</v>
       </c>
@@ -8570,7 +8772,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>197</v>
       </c>
@@ -8578,7 +8780,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>198</v>
       </c>
@@ -8586,7 +8788,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>199</v>
       </c>
@@ -8594,7 +8796,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>200</v>
       </c>
@@ -8602,7 +8804,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>201</v>
       </c>
@@ -8610,7 +8812,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>202</v>
       </c>
@@ -8618,7 +8820,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>203</v>
       </c>
@@ -8626,7 +8828,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>204</v>
       </c>
@@ -8634,7 +8836,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>205</v>
       </c>
@@ -8642,7 +8844,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>206</v>
       </c>
@@ -8650,7 +8852,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>207</v>
       </c>
@@ -8658,7 +8860,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>208</v>
       </c>
@@ -8666,7 +8868,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>209</v>
       </c>
@@ -8674,7 +8876,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>210</v>
       </c>
@@ -8682,7 +8884,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>211</v>
       </c>
@@ -8690,7 +8892,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>212</v>
       </c>
@@ -8698,7 +8900,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>213</v>
       </c>
@@ -8706,7 +8908,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>214</v>
       </c>
@@ -8714,7 +8916,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>215</v>
       </c>
@@ -8722,7 +8924,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>216</v>
       </c>
@@ -8730,7 +8932,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>217</v>
       </c>
@@ -8738,7 +8940,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>218</v>
       </c>
@@ -8746,7 +8948,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>219</v>
       </c>
@@ -8754,7 +8956,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>220</v>
       </c>
@@ -8762,7 +8964,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>221</v>
       </c>
@@ -8770,7 +8972,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>222</v>
       </c>
@@ -8778,7 +8980,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -8786,7 +8988,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>223</v>
       </c>
@@ -8794,7 +8996,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>224</v>
       </c>
@@ -8802,7 +9004,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>225</v>
       </c>
@@ -8810,7 +9012,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>226</v>
       </c>
@@ -8818,7 +9020,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -8826,7 +9028,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -8834,7 +9036,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>229</v>
       </c>
@@ -8842,7 +9044,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -8850,7 +9052,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -8858,7 +9060,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -8866,7 +9068,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -8874,7 +9076,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>233</v>
       </c>
@@ -8894,13 +9096,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -8908,7 +9110,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>239</v>
       </c>
@@ -8916,7 +9118,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>241</v>
       </c>
@@ -8924,7 +9126,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -8932,7 +9134,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>245</v>
       </c>
@@ -8940,7 +9142,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>247</v>
       </c>
@@ -8948,7 +9150,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -8956,7 +9158,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>250</v>
       </c>
@@ -8964,7 +9166,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>252</v>
       </c>
@@ -8972,7 +9174,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -8980,7 +9182,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -8988,7 +9190,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>258</v>
       </c>
@@ -8996,7 +9198,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>260</v>
       </c>
@@ -9004,7 +9206,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -9012,7 +9214,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>268</v>
       </c>
@@ -9020,7 +9222,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>272</v>
       </c>
@@ -9028,7 +9230,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>276</v>
       </c>
@@ -9036,7 +9238,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>277</v>
       </c>
@@ -9044,7 +9246,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>281</v>
       </c>
@@ -9052,7 +9254,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>285</v>
       </c>
@@ -9060,7 +9262,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>289</v>
       </c>
@@ -9068,7 +9270,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>293</v>
       </c>
@@ -9076,7 +9278,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>297</v>
       </c>
@@ -9084,7 +9286,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>301</v>
       </c>
@@ -9092,7 +9294,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>305</v>
       </c>
@@ -9100,7 +9302,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>309</v>
       </c>
@@ -9108,7 +9310,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>313</v>
       </c>
@@ -9116,7 +9318,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>317</v>
       </c>
@@ -9124,7 +9326,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>321</v>
       </c>
@@ -9132,7 +9334,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>325</v>
       </c>
@@ -9140,7 +9342,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>329</v>
       </c>
@@ -9148,7 +9350,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>333</v>
       </c>
@@ -9156,7 +9358,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>337</v>
       </c>
@@ -9164,7 +9366,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>341</v>
       </c>
@@ -9172,7 +9374,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>345</v>
       </c>
@@ -9180,7 +9382,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>349</v>
       </c>
@@ -9188,7 +9390,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>353</v>
       </c>
@@ -9196,7 +9398,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>357</v>
       </c>
@@ -9204,7 +9406,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>361</v>
       </c>
@@ -9212,7 +9414,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>365</v>
       </c>
@@ -9220,7 +9422,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>369</v>
       </c>
@@ -9228,7 +9430,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>370</v>
       </c>
@@ -9236,7 +9438,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>373</v>
       </c>
@@ -9244,7 +9446,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>377</v>
       </c>
@@ -9252,7 +9454,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>381</v>
       </c>
@@ -9260,7 +9462,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>385</v>
       </c>
@@ -9268,7 +9470,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>389</v>
       </c>
@@ -9276,7 +9478,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>393</v>
       </c>
@@ -9284,7 +9486,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>397</v>
       </c>
@@ -9292,7 +9494,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>400</v>
       </c>
@@ -9300,7 +9502,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>402</v>
       </c>
@@ -9308,7 +9510,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>406</v>
       </c>
@@ -9316,7 +9518,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>410</v>
       </c>
@@ -9324,7 +9526,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>414</v>
       </c>
@@ -9332,7 +9534,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>418</v>
       </c>
@@ -9340,7 +9542,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>422</v>
       </c>
@@ -9348,7 +9550,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>426</v>
       </c>
@@ -9356,7 +9558,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>430</v>
       </c>
@@ -9364,7 +9566,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>434</v>
       </c>
@@ -9372,7 +9574,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>438</v>
       </c>
@@ -9380,7 +9582,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>441</v>
       </c>
@@ -9388,7 +9590,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>443</v>
       </c>
@@ -9396,7 +9598,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>445</v>
       </c>
@@ -9404,7 +9606,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>446</v>
       </c>
@@ -9412,7 +9614,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>448</v>
       </c>
@@ -9420,7 +9622,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>452</v>
       </c>
@@ -9428,7 +9630,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>456</v>
       </c>
@@ -9436,7 +9638,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>460</v>
       </c>
@@ -9444,7 +9646,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>465</v>
       </c>
@@ -9452,7 +9654,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>470</v>
       </c>
@@ -9460,7 +9662,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>474</v>
       </c>
@@ -9468,7 +9670,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>478</v>
       </c>
@@ -9476,7 +9678,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>482</v>
       </c>
@@ -9484,7 +9686,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>485</v>
       </c>
@@ -9492,7 +9694,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>489</v>
       </c>
@@ -9500,7 +9702,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>493</v>
       </c>
@@ -9508,7 +9710,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>497</v>
       </c>
@@ -9516,7 +9718,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>501</v>
       </c>
@@ -9524,7 +9726,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>505</v>
       </c>
@@ -9532,7 +9734,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>505</v>
       </c>
@@ -9540,7 +9742,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>510</v>
       </c>
@@ -9548,7 +9750,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>514</v>
       </c>
@@ -9556,7 +9758,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>518</v>
       </c>
@@ -9564,7 +9766,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>522</v>
       </c>
@@ -9572,7 +9774,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>526</v>
       </c>
@@ -9580,7 +9782,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>530</v>
       </c>
@@ -9588,7 +9790,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>534</v>
       </c>
@@ -9596,7 +9798,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>538</v>
       </c>
@@ -9604,7 +9806,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>539</v>
       </c>
@@ -9612,7 +9814,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>543</v>
       </c>
@@ -9620,7 +9822,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>547</v>
       </c>
@@ -9628,7 +9830,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>548</v>
       </c>
@@ -9636,7 +9838,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>552</v>
       </c>
@@ -9644,7 +9846,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>555</v>
       </c>
@@ -9652,7 +9854,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>558</v>
       </c>
@@ -9660,7 +9862,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>562</v>
       </c>
@@ -9668,7 +9870,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>566</v>
       </c>
@@ -9676,7 +9878,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>570</v>
       </c>
@@ -9684,7 +9886,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>574</v>
       </c>
@@ -9692,7 +9894,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>578</v>
       </c>
@@ -9700,7 +9902,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>582</v>
       </c>
@@ -9708,7 +9910,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>586</v>
       </c>
@@ -9716,7 +9918,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>590</v>
       </c>
@@ -9724,7 +9926,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>593</v>
       </c>
@@ -9732,7 +9934,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>595</v>
       </c>
@@ -9740,7 +9942,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>599</v>
       </c>
@@ -9748,7 +9950,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>603</v>
       </c>
@@ -9756,7 +9958,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>607</v>
       </c>
@@ -9764,7 +9966,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>611</v>
       </c>
@@ -9772,7 +9974,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>612</v>
       </c>
@@ -9780,7 +9982,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>615</v>
       </c>
@@ -9788,7 +9990,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>619</v>
       </c>
@@ -9796,7 +9998,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>623</v>
       </c>
@@ -9804,7 +10006,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>627</v>
       </c>
@@ -9812,7 +10014,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>631</v>
       </c>
@@ -9820,7 +10022,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>635</v>
       </c>
@@ -9828,7 +10030,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>639</v>
       </c>
@@ -9836,7 +10038,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>643</v>
       </c>
@@ -9844,7 +10046,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>262</v>
       </c>
@@ -9852,7 +10054,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>266</v>
       </c>
@@ -9860,7 +10062,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>270</v>
       </c>
@@ -9868,7 +10070,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>274</v>
       </c>
@@ -9876,7 +10078,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>279</v>
       </c>
@@ -9884,7 +10086,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>283</v>
       </c>
@@ -9892,7 +10094,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>287</v>
       </c>
@@ -9900,7 +10102,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>291</v>
       </c>
@@ -9908,7 +10110,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>295</v>
       </c>
@@ -9916,7 +10118,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>299</v>
       </c>
@@ -9924,7 +10126,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>303</v>
       </c>
@@ -9932,7 +10134,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>307</v>
       </c>
@@ -9940,7 +10142,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>311</v>
       </c>
@@ -9948,7 +10150,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>315</v>
       </c>
@@ -9956,7 +10158,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>319</v>
       </c>
@@ -9964,7 +10166,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>323</v>
       </c>
@@ -9972,7 +10174,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>327</v>
       </c>
@@ -9980,7 +10182,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>331</v>
       </c>
@@ -9988,7 +10190,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>335</v>
       </c>
@@ -9996,7 +10198,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>339</v>
       </c>
@@ -10004,7 +10206,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>343</v>
       </c>
@@ -10012,7 +10214,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>347</v>
       </c>
@@ -10020,7 +10222,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>351</v>
       </c>
@@ -10028,7 +10230,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>355</v>
       </c>
@@ -10036,7 +10238,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>359</v>
       </c>
@@ -10044,7 +10246,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>363</v>
       </c>
@@ -10052,7 +10254,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>367</v>
       </c>
@@ -10060,7 +10262,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>371</v>
       </c>
@@ -10068,7 +10270,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>375</v>
       </c>
@@ -10076,7 +10278,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>379</v>
       </c>
@@ -10084,7 +10286,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>383</v>
       </c>
@@ -10092,7 +10294,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>387</v>
       </c>
@@ -10100,7 +10302,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>391</v>
       </c>
@@ -10108,7 +10310,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>395</v>
       </c>
@@ -10116,7 +10318,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>399</v>
       </c>
@@ -10124,7 +10326,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>404</v>
       </c>
@@ -10132,7 +10334,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>408</v>
       </c>
@@ -10140,7 +10342,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>412</v>
       </c>
@@ -10148,7 +10350,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>416</v>
       </c>
@@ -10156,7 +10358,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>420</v>
       </c>
@@ -10164,7 +10366,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>424</v>
       </c>
@@ -10172,7 +10374,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>428</v>
       </c>
@@ -10180,7 +10382,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>432</v>
       </c>
@@ -10188,7 +10390,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>436</v>
       </c>
@@ -10196,7 +10398,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>440</v>
       </c>
@@ -10204,7 +10406,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>450</v>
       </c>
@@ -10212,7 +10414,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>454</v>
       </c>
@@ -10220,7 +10422,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>458</v>
       </c>
@@ -10228,7 +10430,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>462</v>
       </c>
@@ -10236,7 +10438,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>463</v>
       </c>
@@ -10244,7 +10446,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>467</v>
       </c>
@@ -10252,7 +10454,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>468</v>
       </c>
@@ -10260,7 +10462,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>472</v>
       </c>
@@ -10268,7 +10470,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>476</v>
       </c>
@@ -10276,7 +10478,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>480</v>
       </c>
@@ -10284,7 +10486,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>483</v>
       </c>
@@ -10292,7 +10494,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>487</v>
       </c>
@@ -10300,7 +10502,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>491</v>
       </c>
@@ -10308,7 +10510,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>495</v>
       </c>
@@ -10316,7 +10518,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>499</v>
       </c>
@@ -10324,7 +10526,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>503</v>
       </c>
@@ -10332,7 +10534,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>508</v>
       </c>
@@ -10340,7 +10542,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>512</v>
       </c>
@@ -10348,7 +10550,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>516</v>
       </c>
@@ -10356,7 +10558,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>520</v>
       </c>
@@ -10364,7 +10566,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>524</v>
       </c>
@@ -10372,7 +10574,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>528</v>
       </c>
@@ -10380,7 +10582,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>532</v>
       </c>
@@ -10388,7 +10590,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>536</v>
       </c>
@@ -10396,7 +10598,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>541</v>
       </c>
@@ -10404,7 +10606,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>545</v>
       </c>
@@ -10412,7 +10614,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>550</v>
       </c>
@@ -10420,7 +10622,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>554</v>
       </c>
@@ -10428,7 +10630,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>556</v>
       </c>
@@ -10436,7 +10638,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>560</v>
       </c>
@@ -10444,7 +10646,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>564</v>
       </c>
@@ -10452,7 +10654,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>568</v>
       </c>
@@ -10460,7 +10662,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>572</v>
       </c>
@@ -10468,7 +10670,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>576</v>
       </c>
@@ -10476,7 +10678,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>580</v>
       </c>
@@ -10484,7 +10686,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>584</v>
       </c>
@@ -10492,7 +10694,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>588</v>
       </c>
@@ -10500,7 +10702,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>592</v>
       </c>
@@ -10508,7 +10710,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>597</v>
       </c>
@@ -10516,7 +10718,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>601</v>
       </c>
@@ -10524,7 +10726,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>605</v>
       </c>
@@ -10532,7 +10734,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>609</v>
       </c>
@@ -10540,7 +10742,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>614</v>
       </c>
@@ -10548,7 +10750,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>617</v>
       </c>
@@ -10556,7 +10758,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>621</v>
       </c>
@@ -10564,7 +10766,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>625</v>
       </c>
@@ -10572,7 +10774,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>629</v>
       </c>
@@ -10580,7 +10782,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>633</v>
       </c>
@@ -10588,7 +10790,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>637</v>
       </c>
@@ -10596,7 +10798,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>641</v>
       </c>
@@ -10604,7 +10806,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>645</v>
       </c>
